--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_1_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_1_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1633440.76047715</v>
+        <v>-1635390.986305711</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>394.4439516756087</v>
       </c>
       <c r="H2" t="n">
-        <v>68.55811240861523</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>156.4106399183338</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -738,7 +738,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>172.7084989883158</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -817,10 +817,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>133.675685265885</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>65.29997400339137</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>308.5980045146179</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,10 +905,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>317.5695378949948</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>32.52882640960905</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1108,19 +1108,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>39.30866788333488</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>268.0457851141061</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>235.5715351591087</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,31 +1288,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>12.80303793563638</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>68.16471659739314</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>12.85506030234988</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -1582,16 +1582,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>148.4782663459313</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>105.9495739306893</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>198.3995851897502</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>91.79970579514244</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2008,13 +2008,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,25 +2047,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>31.42218700821035</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2239,22 +2239,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>160.0006879278784</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2290,13 +2290,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>207.6338519248148</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2324,7 +2324,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>74.72676577696632</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2491,10 +2491,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2536,10 +2536,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>174.3062600431768</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2713,25 +2713,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C28" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D28" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E28" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F28" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G28" t="n">
-        <v>98.36167833373692</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H28" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789599</v>
       </c>
       <c r="I28" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S28" t="n">
         <v>129.7889198539626</v>
@@ -2776,7 +2776,7 @@
         <v>218.3911082069503</v>
       </c>
       <c r="X28" t="n">
-        <v>157.577765259397</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y28" t="n">
         <v>150.4527632224541</v>
@@ -2846,7 +2846,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2950,25 +2950,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G31" t="n">
         <v>98.3616783337369</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463189</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S31" t="n">
         <v>129.7889198539626</v>
@@ -3086,7 +3086,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898722</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857175</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692856</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329064</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789552</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463139</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415219</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3436,7 +3436,7 @@
         <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H37" t="n">
         <v>80.78193823789547</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>917.0654262063535</v>
+        <v>1702.283515201396</v>
       </c>
       <c r="C2" t="n">
-        <v>548.1029092659419</v>
+        <v>1702.283515201396</v>
       </c>
       <c r="D2" t="n">
-        <v>548.1029092659419</v>
+        <v>1344.017816594646</v>
       </c>
       <c r="E2" t="n">
-        <v>548.1029092659419</v>
+        <v>1344.017816594646</v>
       </c>
       <c r="F2" t="n">
-        <v>541.1574085167384</v>
+        <v>933.0319118050384</v>
       </c>
       <c r="G2" t="n">
-        <v>123.1936004149253</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4346,34 +4346,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2484.129856176661</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2265.495189148724</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U2" t="n">
-        <v>2011.733403786816</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="V2" t="n">
-        <v>1680.670516443245</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W2" t="n">
-        <v>1680.670516443245</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="X2" t="n">
-        <v>1307.204758182165</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="Y2" t="n">
-        <v>917.0654262063535</v>
+        <v>1702.283515201396</v>
       </c>
     </row>
     <row r="3">
@@ -4383,67 +4383,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4452,7 +4452,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>325.2978374347314</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="C4" t="n">
-        <v>190.2718927217162</v>
+        <v>270.0191909330955</v>
       </c>
       <c r="D4" t="n">
-        <v>190.2718927217162</v>
+        <v>119.9025515207598</v>
       </c>
       <c r="E4" t="n">
-        <v>190.2718927217162</v>
+        <v>119.9025515207598</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2718927217162</v>
+        <v>119.9025515207598</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>119.9025515207598</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>119.9025515207598</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>579.9823256406182</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V4" t="n">
-        <v>325.2978374347314</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W4" t="n">
-        <v>325.2978374347314</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="X4" t="n">
-        <v>325.2978374347314</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="Y4" t="n">
-        <v>325.2978374347314</v>
+        <v>438.9553738610024</v>
       </c>
     </row>
     <row r="5">
@@ -4553,7 +4553,7 @@
         <v>806.0470106353782</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
         <v>381.1377017843616</v>
@@ -4565,10 +4565,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224075</v>
@@ -4577,7 +4577,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W5" t="n">
-        <v>2289.351746278601</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="X5" t="n">
-        <v>1968.574435273556</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="Y5" t="n">
-        <v>1578.435103297744</v>
+        <v>1503.550419308994</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4662,13 +4662,13 @@
         <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>369.8327295799424</v>
+        <v>279.346854164887</v>
       </c>
       <c r="C7" t="n">
-        <v>369.8327295799424</v>
+        <v>279.346854164887</v>
       </c>
       <c r="D7" t="n">
-        <v>369.8327295799424</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>409.5384547146241</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>369.8327295799424</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>369.8327295799424</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>369.8327295799424</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="Y7" t="n">
-        <v>369.8327295799424</v>
+        <v>279.346854164887</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1036.358670716696</v>
+        <v>991.2778500677825</v>
       </c>
       <c r="C8" t="n">
-        <v>1036.358670716696</v>
+        <v>991.2778500677825</v>
       </c>
       <c r="D8" t="n">
-        <v>1036.358670716696</v>
+        <v>633.0121514610321</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>633.0121514610321</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="U8" t="n">
-        <v>2423.485734520778</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V8" t="n">
-        <v>2423.485734520778</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W8" t="n">
-        <v>2070.717079250664</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X8" t="n">
-        <v>1697.251320989584</v>
+        <v>991.2778500677825</v>
       </c>
       <c r="Y8" t="n">
-        <v>1307.111989013772</v>
+        <v>991.2778500677825</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4857,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M9" t="n">
         <v>1313.210296315296</v>
@@ -4896,34 +4896,34 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>409.5384547146241</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C10" t="n">
-        <v>409.5384547146241</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D10" t="n">
-        <v>259.4218153022883</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E10" t="n">
-        <v>259.4218153022883</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F10" t="n">
-        <v>112.531867804378</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
-        <v>112.531867804378</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>112.531867804378</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U10" t="n">
-        <v>409.5384547146241</v>
+        <v>659.2757351181587</v>
       </c>
       <c r="V10" t="n">
-        <v>409.5384547146241</v>
+        <v>404.5912469122717</v>
       </c>
       <c r="W10" t="n">
-        <v>409.5384547146241</v>
+        <v>404.5912469122717</v>
       </c>
       <c r="X10" t="n">
-        <v>409.5384547146241</v>
+        <v>404.5912469122717</v>
       </c>
       <c r="Y10" t="n">
-        <v>409.5384547146241</v>
+        <v>404.5912469122717</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5039,10 +5039,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1006.27269220504</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="C13" t="n">
-        <v>837.3365092771336</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="D13" t="n">
-        <v>687.2198698647978</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
         <v>208.7516828383384</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>1187.92115703528</v>
+        <v>1149.018213659383</v>
       </c>
       <c r="V13" t="n">
-        <v>1187.92115703528</v>
+        <v>894.3337254534956</v>
       </c>
       <c r="W13" t="n">
-        <v>1187.92115703528</v>
+        <v>604.9165554165351</v>
       </c>
       <c r="X13" t="n">
-        <v>1187.92115703528</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="Y13" t="n">
-        <v>1187.92115703528</v>
+        <v>376.9270045185177</v>
       </c>
     </row>
     <row r="14">
@@ -5255,46 +5255,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155881</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5303,22 +5303,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5358,22 +5358,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>674.2349604684848</v>
+        <v>506.7814158330672</v>
       </c>
       <c r="C16" t="n">
-        <v>674.2349604684848</v>
+        <v>506.7814158330672</v>
       </c>
       <c r="D16" t="n">
-        <v>674.2349604684848</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
         <v>208.7516828383384</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1391.896498910741</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1391.896498910741</v>
       </c>
       <c r="T16" t="n">
-        <v>1164.055751909234</v>
+        <v>1391.896498910741</v>
       </c>
       <c r="U16" t="n">
-        <v>1164.055751909234</v>
+        <v>1391.896498910741</v>
       </c>
       <c r="V16" t="n">
-        <v>1164.055751909234</v>
+        <v>1137.212010704854</v>
       </c>
       <c r="W16" t="n">
-        <v>874.6385818722729</v>
+        <v>1137.212010704854</v>
       </c>
       <c r="X16" t="n">
-        <v>874.6385818722729</v>
+        <v>909.222459806837</v>
       </c>
       <c r="Y16" t="n">
-        <v>674.2349604684848</v>
+        <v>688.4298806633069</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,40 +5498,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5540,22 +5540,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5592,25 +5592,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1467.176687721326</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1267.256677636879</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1043.471262426384</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557902</v>
+        <v>754.3426236399425</v>
       </c>
       <c r="V19" t="n">
-        <v>1244.231782352015</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="W19" t="n">
-        <v>954.8146123150548</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="X19" t="n">
-        <v>726.8250614170374</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y19" t="n">
-        <v>506.0324822735073</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="20">
@@ -5729,19 +5729,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822463</v>
@@ -5750,10 +5750,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5768,7 +5768,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5783,16 +5783,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>563.7235151749151</v>
+        <v>872.6898113736385</v>
       </c>
       <c r="C22" t="n">
-        <v>563.7235151749151</v>
+        <v>703.7536284457316</v>
       </c>
       <c r="D22" t="n">
-        <v>563.7235151749151</v>
+        <v>553.6369890333958</v>
       </c>
       <c r="E22" t="n">
-        <v>415.8104215925219</v>
+        <v>405.7238954510027</v>
       </c>
       <c r="F22" t="n">
-        <v>415.8104215925219</v>
+        <v>258.8339479530923</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028584</v>
@@ -5938,22 +5938,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>1209.787631771461</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V22" t="n">
-        <v>955.1031435655738</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W22" t="n">
-        <v>955.1031435655738</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="X22" t="n">
-        <v>955.1031435655738</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="Y22" t="n">
-        <v>745.3719800051548</v>
+        <v>1054.338276203878</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
         <v>1701.09316900344</v>
@@ -5978,40 +5978,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6020,16 +6020,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6063,28 +6063,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>563.7235867775518</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1332.091733170013</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N24" t="n">
-        <v>1661.954360834046</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>710.3120936331045</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C25" t="n">
-        <v>710.3120936331045</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D25" t="n">
-        <v>560.1954542207687</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E25" t="n">
-        <v>412.2823606383756</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6172,25 +6172,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V25" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W25" t="n">
-        <v>785.7936752259998</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X25" t="n">
-        <v>785.7936752259998</v>
+        <v>1322.84934122136</v>
       </c>
       <c r="Y25" t="n">
-        <v>785.7936752259998</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="26">
@@ -6203,31 +6203,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6245,10 +6245,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6257,16 +6257,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6300,19 +6300,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M27" t="n">
-        <v>1247.466478653857</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N27" t="n">
         <v>2051.878056918008</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C28" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D28" t="n">
-        <v>478.0475988506724</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E28" t="n">
-        <v>398.9545963083204</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F28" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504518</v>
       </c>
       <c r="G28" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103134</v>
       </c>
       <c r="H28" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K28" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L28" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M28" t="n">
         <v>1048.866260860496</v>
@@ -6424,10 +6424,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X28" t="n">
-        <v>924.2611010045205</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y28" t="n">
-        <v>772.2886129010315</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6455,58 +6455,58 @@
         <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6537,7 +6537,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6546,22 +6546,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C31" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506723</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083203</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504518</v>
       </c>
       <c r="G31" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103134</v>
       </c>
       <c r="H31" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982979</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L31" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M31" t="n">
         <v>1048.866260860496</v>
@@ -6655,16 +6655,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W31" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>924.2611010045205</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010315</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6692,58 +6692,58 @@
         <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6765,25 +6765,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
         <v>1228.513823643586</v>
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C34" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229678</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506731</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083211</v>
       </c>
       <c r="F34" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504519</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L34" t="n">
         <v>709.8489468649691</v>
@@ -6868,40 +6868,40 @@
         <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.186490350128</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184155</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384655</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045213</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6926,40 +6926,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6968,16 +6968,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7011,28 +7011,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>857.5427825698953</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229673</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
-        <v>139.931591798297</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028587</v>
@@ -7096,7 +7096,7 @@
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
         <v>709.8489468649691</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7129,16 +7129,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822463</v>
@@ -7199,25 +7199,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7269,10 +7269,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C40" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F40" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G40" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982974</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525403</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254961</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649695</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7351,7 +7351,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="41">
@@ -7385,31 +7385,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155909</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822459</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7424,37 +7424,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7476,13 +7476,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
@@ -7491,25 +7491,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504515</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525401</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7582,37 +7582,37 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T43" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="44">
@@ -7728,22 +7728,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>485.5200852635878</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
         <v>320.8847398504512</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8310,10 +8310,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992659</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8544,13 +8544,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747117</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,31 +8766,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9006,25 +9006,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>283.6093329825492</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9240,28 +9240,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9416,7 +9416,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714832</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,28 +9714,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>29.47535963978225</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445218</v>
@@ -9893,7 +9893,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599068</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9960,10 +9960,10 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>409.7003683229582</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10194,7 +10194,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>180.0237016735874</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10662,28 +10662,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>15.83804904622878</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445218</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776749</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11376,10 +11376,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>73.64859338270685</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11391,10 +11391,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445218</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>181.4071196555284</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22553,13 +22553,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>19.34021834518626</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>18.00507289063773</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22607,7 +22607,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22705,19 +22705,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>33.57113583274281</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>133.5789023442193</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,16 +23470,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>137.759086052646</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365925</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23650,25 +23650,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>4.014778473103462</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>20.18506816234461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>88.03227438679485</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23896,13 +23896,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23935,25 +23935,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>78.54216539558244</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,22 +24127,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>6.492880535499182</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24178,13 +24178,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24193,7 +24193,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>10.95080142728003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>105.105214404971</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,10 +24412,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -24424,10 +24424,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>51.40339534586036</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>-3.999023462385572e-13</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>-5.968558980384842e-13</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1297524.835099871</v>
+        <v>1297524.835099872</v>
       </c>
     </row>
     <row r="9">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>77466.06243016745</v>
+        <v>77466.06243016741</v>
       </c>
       <c r="C2" t="n">
-        <v>82104.17698642834</v>
+        <v>82104.17698642833</v>
       </c>
       <c r="D2" t="n">
-        <v>82104.17698642836</v>
+        <v>82104.1769864283</v>
       </c>
       <c r="E2" t="n">
-        <v>78205.8119475417</v>
+        <v>78205.81194754175</v>
       </c>
       <c r="F2" t="n">
-        <v>78205.81194754176</v>
+        <v>78205.81194754173</v>
       </c>
       <c r="G2" t="n">
         <v>78205.81194754175</v>
       </c>
       <c r="H2" t="n">
-        <v>78205.81194754176</v>
+        <v>78205.81194754175</v>
       </c>
       <c r="I2" t="n">
-        <v>78205.81194754176</v>
+        <v>78205.81194754172</v>
       </c>
       <c r="J2" t="n">
-        <v>82104.17698642846</v>
+        <v>82104.17698642849</v>
       </c>
       <c r="K2" t="n">
+        <v>82104.17698642831</v>
+      </c>
+      <c r="L2" t="n">
         <v>82104.17698642837</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>82104.17698642828</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>82104.17698642837</v>
       </c>
-      <c r="N2" t="n">
-        <v>82104.17698642828</v>
-      </c>
       <c r="O2" t="n">
-        <v>82104.17698642837</v>
+        <v>82104.17698642839</v>
       </c>
       <c r="P2" t="n">
-        <v>82104.17698642837</v>
+        <v>82104.1769864284</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,13 +26381,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>230928.7312963054</v>
+        <v>230928.7312963055</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>147917.0487159209</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007525</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007487</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="J4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732798</v>
       </c>
       <c r="K4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732798</v>
       </c>
       <c r="L4" t="n">
-        <v>30335.518897328</v>
+        <v>30335.51889732798</v>
       </c>
       <c r="M4" t="n">
         <v>30335.51889732797</v>
       </c>
       <c r="N4" t="n">
-        <v>30335.51889732794</v>
+        <v>30335.51889732796</v>
       </c>
       <c r="O4" t="n">
-        <v>30335.51889732795</v>
+        <v>30335.51889732797</v>
       </c>
       <c r="P4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732796</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
@@ -26485,22 +26485,22 @@
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="K5" t="n">
         <v>97715.10582002539</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>97715.1058200254</v>
       </c>
-      <c r="L5" t="n">
-        <v>97715.10582002538</v>
-      </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
         <v>97715.1058200254</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-716805.1127494348</v>
+        <v>-716921.0656133415</v>
       </c>
       <c r="C6" t="n">
-        <v>-148671.9497929019</v>
+        <v>-148671.949792902</v>
       </c>
       <c r="D6" t="n">
         <v>-148671.949792902</v>
       </c>
       <c r="E6" t="n">
-        <v>-546858.2821340786</v>
+        <v>-546955.7412600503</v>
       </c>
       <c r="F6" t="n">
-        <v>-21698.24565718234</v>
+        <v>-21795.70478315454</v>
       </c>
       <c r="G6" t="n">
-        <v>-21698.2456571824</v>
+        <v>-21795.70478315452</v>
       </c>
       <c r="H6" t="n">
-        <v>-21698.24565718231</v>
+        <v>-21795.70478315456</v>
       </c>
       <c r="I6" t="n">
-        <v>-21698.24565718236</v>
+        <v>-21795.70478315456</v>
       </c>
       <c r="J6" t="n">
         <v>-276875.1790272304</v>
       </c>
       <c r="K6" t="n">
+        <v>-45946.44773092505</v>
+      </c>
+      <c r="L6" t="n">
         <v>-45946.44773092501</v>
       </c>
-      <c r="L6" t="n">
-        <v>-45946.44773092492</v>
-      </c>
       <c r="M6" t="n">
-        <v>-180747.4629647623</v>
+        <v>-180747.4629647621</v>
       </c>
       <c r="N6" t="n">
-        <v>-45946.44773092506</v>
+        <v>-45946.44773092499</v>
       </c>
       <c r="O6" t="n">
         <v>-100451.9598346375</v>
       </c>
       <c r="P6" t="n">
-        <v>-45946.44773092499</v>
+        <v>-45946.44773092495</v>
       </c>
     </row>
   </sheetData>
@@ -26701,31 +26701,31 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M2" t="n">
         <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
+        <v>68.13189012964062</v>
+      </c>
+      <c r="O2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964065</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964064</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
@@ -26774,7 +26774,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26923,13 +26923,13 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27160,13 +27160,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>201.3267220079522</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>255.3646603557419</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27543,22 +27543,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>69.66564778894686</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,10 +27591,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>74.13583714886266</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27625,10 +27625,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>52.16156278347427</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>116.0866466086033</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,7 +27786,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,19 +27828,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>212.8289754404931</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>114.6880565493744</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>171.3045105826027</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,19 +27898,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,31 +28008,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>122.1625838567018</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,10 +28065,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>218.1171576445846</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="32">
@@ -29806,7 +29806,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="35">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,43 +31519,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,25 +31695,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,10 +34296,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328935</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>594.0337100330154</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36136,7 +36136,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109128</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
         <v>350.4995841502048</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>278.7330645958065</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004661</v>
+        <v>598.8335596281419</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36613,7 +36613,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R26" t="n">
         <v>59.82538970349808</v>
@@ -36680,10 +36680,10 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>720.1247453734244</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411081</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K28" t="n">
         <v>219.8343186595512</v>
@@ -36768,7 +36768,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P28" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q28" t="n">
         <v>107.3575901015154</v>
@@ -36838,7 +36838,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36914,7 +36914,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>429.2814066296117</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504662</v>
@@ -36926,13 +36926,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K31" t="n">
         <v>219.8343186595512</v>
@@ -37005,7 +37005,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P31" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q31" t="n">
         <v>107.3575901015154</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K32" t="n">
         <v>528.689756130333</v>
@@ -37224,25 +37224,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520613</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
       </c>
       <c r="L34" t="n">
-        <v>318.3460770095691</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M34" t="n">
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414413</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37312,7 +37312,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>326.262426096695</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37473,7 +37473,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
@@ -37637,13 +37637,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37780,28 +37780,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37859,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091996</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,10 +37950,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38096,10 +38096,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>224.2240319706461</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504662</v>
@@ -38111,10 +38111,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
